--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E7F70-58AF-4353-9981-E093B445E872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -24,17 +25,23 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -699,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1104,19 +1111,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1256,7 +1263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1272,7 +1279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1296,7 +1303,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1354,38 +1361,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1541,7 +1548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1645,7 +1652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2061,7 +2068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2087,7 +2094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2130,25 +2137,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2254,7 +2261,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2277,7 +2284,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2330,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2346,7 +2353,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2446,7 +2453,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -2619,7 +2626,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -2694,7 +2701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2849,24 +2856,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2931,7 +2938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3026,7 +3033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3049,7 +3056,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -3087,7 +3094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3374,7 +3381,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3466,7 +3473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3479,25 +3486,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3554,7 +3561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3576,7 +3583,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3587,7 +3594,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3622,35 +3629,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
@@ -3661,7 +3668,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>118</v>
       </c>
@@ -3676,7 +3683,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>215</v>
       </c>
@@ -3691,7 +3698,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>216</v>
       </c>
@@ -3706,7 +3713,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -3721,7 +3728,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>119</v>
       </c>
@@ -3736,7 +3743,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -3747,7 +3754,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -3760,7 +3767,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -3773,12 +3780,12 @@
       </c>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3789,7 +3796,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3800,12 +3807,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3828,21 +3835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3870,7 +3877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3898,7 +3905,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3912,7 +3919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3968,7 +3975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3982,7 +3989,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -4024,7 +4031,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -4038,7 +4045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -4066,7 +4073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -4150,7 +4157,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -4192,7 +4199,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -4213,21 +4220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4254,22 +4261,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4286,7 +4293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -4320,7 +4327,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -4388,7 +4395,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -4490,7 +4497,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -4507,7 +4514,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -4524,7 +4531,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -4558,7 +4565,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -4609,7 +4616,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -4626,7 +4633,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4660,7 +4667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4677,7 +4684,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4711,7 +4718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4728,7 +4735,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4745,7 +4752,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4762,7 +4769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4779,7 +4786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4847,7 +4854,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4864,7 +4871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4881,7 +4888,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4898,7 +4905,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4915,7 +4922,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4932,7 +4939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4949,7 +4956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4966,7 +4973,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5000,7 +5007,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -5017,7 +5024,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -5034,7 +5041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -5068,7 +5075,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -5102,7 +5109,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5119,7 +5126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -5153,7 +5160,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -5204,7 +5211,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -5272,7 +5279,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -5289,7 +5296,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -5306,7 +5313,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -5323,7 +5330,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -5340,7 +5347,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -5357,7 +5364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -5374,7 +5381,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -5425,7 +5432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -5442,7 +5449,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -5459,7 +5466,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -5476,7 +5483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -5493,7 +5500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -5510,7 +5517,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -5527,7 +5534,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -5544,7 +5551,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -5561,7 +5568,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -5629,7 +5636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -5646,7 +5653,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5680,7 +5687,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5714,7 +5721,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5748,7 +5755,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5816,7 +5823,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5850,7 +5857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5918,7 +5925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5942,18 +5949,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5975,7 +5982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6003,20 +6010,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -6027,7 +6034,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -6049,7 +6056,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -6071,7 +6078,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -6082,7 +6089,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6115,7 +6122,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -6126,7 +6133,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -6137,7 +6144,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6148,7 +6155,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6159,7 +6166,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6203,7 +6210,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -6214,7 +6221,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6236,7 +6243,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -6247,7 +6254,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6269,7 +6276,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6280,7 +6287,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -6291,7 +6298,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6309,26 +6316,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6433,7 +6440,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -6534,7 +6541,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -6554,7 +6561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -6647,7 +6654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6670,7 +6677,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6716,7 +6723,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6746,20 +6753,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6773,7 +6780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6787,7 +6794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6801,7 +6808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6815,7 +6822,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6829,7 +6836,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6850,20 +6857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6877,7 +6884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6903,7 +6910,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6915,7 +6922,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6926,38 +6933,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2031</v>
-      </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6966,20 +6949,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6987,7 +6970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6995,7 +6978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -7009,28 +6992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7106,7 +7089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7133,7 +7116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7162,7 +7145,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7191,7 +7174,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -7205,7 +7188,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7225,7 +7208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -7254,7 +7237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -7286,7 +7269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7300,7 +7283,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7321,19 +7304,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7347,7 +7330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7361,7 +7344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E7F70-58AF-4353-9981-E093B445E872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83B164-0FCB-4EC5-8375-23DA2FD0494A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,7 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1185,7 @@
       <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1205,7 +1204,7 @@
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1213,7 +1212,7 @@
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1229,7 +1228,7 @@
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1283,7 +1282,7 @@
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1291,7 +1290,7 @@
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1299,7 +1298,7 @@
       <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1307,7 +1306,7 @@
       <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1323,7 +1322,7 @@
       <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1331,7 +1330,7 @@
       <c r="A22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1339,7 +1338,7 @@
       <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1731,65 +1730,65 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1801,21 +1800,21 @@
       <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1827,21 +1826,21 @@
       <c r="F17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1853,114 +1852,114 @@
       <c r="F18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2479,225 +2478,225 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>50</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22">
         <v>25.3</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>85</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>87</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>87</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>87</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22">
         <v>62.02</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="22">
         <v>42.47</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2928,13 +2927,13 @@
       <c r="D3" s="6">
         <v>75.97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="9">
         <v>1.919</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2942,18 +2941,18 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="9">
         <v>2.8380000000000001</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2961,18 +2960,18 @@
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>24.633333333333336</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2985,13 +2984,13 @@
       <c r="D6" s="6">
         <v>30.57</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3004,13 +3003,13 @@
       <c r="D7" s="6">
         <v>34.31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="9">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3023,13 +3022,13 @@
       <c r="D8" s="6">
         <v>45.56</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="9">
         <v>1.0289999999999999</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3040,19 +3039,19 @@
       <c r="B9" s="6">
         <v>3935</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="12">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3061,8 +3060,8 @@
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>425.4</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3084,13 +3083,13 @@
       <c r="D11" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3103,13 +3102,13 @@
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3122,216 +3121,216 @@
       <c r="D13" s="7">
         <v>42</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>1284</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="23">
         <v>32.1</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>3749</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="23">
         <v>112</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="23">
         <v>1.67</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3644</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="23">
         <v>33</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="23">
         <v>1.39</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>952</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24">
+      <c r="C17" s="25"/>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>11.33</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>952</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24">
+      <c r="C18" s="25"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>11.33</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>612.6</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="26">
         <v>11</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="23">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="23">
         <v>12</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="23">
         <v>1.944</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1060</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="23">
         <v>13</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1494</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23">
         <v>42</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3351,7 +3350,7 @@
       <c r="E23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -3374,7 +3373,7 @@
       <c r="E24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>1.67</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -3397,7 +3396,7 @@
       <c r="E25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>0.83299999999999996</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -3420,7 +3419,7 @@
       <c r="E26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>1.944</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -3658,127 +3657,127 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25">
         <v>290</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.01</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.93</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>705.6</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>71.64</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -3867,7 +3866,7 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C2" t="s">
@@ -3881,10 +3880,10 @@
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>454</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3895,10 +3894,10 @@
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>378</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3909,10 +3908,10 @@
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>247.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3923,10 +3922,10 @@
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>220</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3937,10 +3936,10 @@
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>296</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3951,10 +3950,10 @@
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>296</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3965,10 +3964,10 @@
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>440</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3979,10 +3978,10 @@
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>900</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -3993,10 +3992,10 @@
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>85</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4007,10 +4006,10 @@
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>85</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -4021,10 +4020,10 @@
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>410</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -4035,10 +4034,10 @@
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>410</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -4049,10 +4048,10 @@
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>170</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4063,10 +4062,10 @@
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>200</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -4077,10 +4076,10 @@
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>100</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -4091,10 +4090,10 @@
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>100</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -4105,10 +4104,10 @@
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>216</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -4119,10 +4118,10 @@
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>216</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4133,10 +4132,10 @@
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4147,10 +4146,10 @@
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2.4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -4161,10 +4160,10 @@
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>507</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4175,10 +4174,10 @@
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>22.1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -4189,10 +4188,10 @@
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>30</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -4203,10 +4202,10 @@
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>102</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4317,7 +4316,7 @@
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D3">
@@ -4334,7 +4333,7 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D4">
@@ -4351,7 +4350,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D5">
@@ -4368,7 +4367,7 @@
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D6">
@@ -4385,7 +4384,7 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D7">
@@ -4402,7 +4401,7 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D8">
@@ -4419,7 +4418,7 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D9">
@@ -4436,7 +4435,7 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D10">
@@ -4453,7 +4452,7 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D11">
@@ -4470,7 +4469,7 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D12">
@@ -4487,7 +4486,7 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -4504,7 +4503,7 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D14">
@@ -4521,7 +4520,7 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D15">
@@ -4538,7 +4537,7 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D16">
@@ -4555,7 +4554,7 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D17">
@@ -4572,7 +4571,7 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D18">
@@ -4589,7 +4588,7 @@
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D19">
@@ -4606,7 +4605,7 @@
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D20">
@@ -4623,7 +4622,7 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D21">
@@ -4640,7 +4639,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22">
@@ -4657,7 +4656,7 @@
       <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D23">
@@ -4674,7 +4673,7 @@
       <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D24">
@@ -4691,7 +4690,7 @@
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D25">
@@ -4708,7 +4707,7 @@
       <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D26">
@@ -4725,7 +4724,7 @@
       <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D27">
@@ -4742,7 +4741,7 @@
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D28">
@@ -4759,7 +4758,7 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D29">
@@ -4776,7 +4775,7 @@
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D30">
@@ -4793,7 +4792,7 @@
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D31">
@@ -4810,7 +4809,7 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D32">
@@ -4827,7 +4826,7 @@
       <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D33">
@@ -4844,7 +4843,7 @@
       <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D34">
@@ -4861,7 +4860,7 @@
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D35">
@@ -4878,7 +4877,7 @@
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -4895,7 +4894,7 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -4912,7 +4911,7 @@
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -4929,7 +4928,7 @@
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -4946,7 +4945,7 @@
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -4963,7 +4962,7 @@
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -4980,7 +4979,7 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D42">
@@ -4997,7 +4996,7 @@
       <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D43">
@@ -5014,7 +5013,7 @@
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D44">
@@ -5031,7 +5030,7 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D45">
@@ -5048,7 +5047,7 @@
       <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D46">
@@ -5065,7 +5064,7 @@
       <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D47">
@@ -5082,7 +5081,7 @@
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D48">
@@ -5099,7 +5098,7 @@
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D49">
@@ -5116,7 +5115,7 @@
       <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D50">
@@ -5133,7 +5132,7 @@
       <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D51">
@@ -5150,7 +5149,7 @@
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D52">
@@ -5167,7 +5166,7 @@
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D53">
@@ -5184,7 +5183,7 @@
       <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D54">
@@ -5201,7 +5200,7 @@
       <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D55">
@@ -5218,7 +5217,7 @@
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D56">
@@ -5235,7 +5234,7 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D57">
@@ -5252,7 +5251,7 @@
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D58">
@@ -5269,7 +5268,7 @@
       <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D59">
@@ -5286,7 +5285,7 @@
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D60">
@@ -5303,7 +5302,7 @@
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D61">
@@ -5320,7 +5319,7 @@
       <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D62">
@@ -5337,7 +5336,7 @@
       <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D63">
@@ -5354,7 +5353,7 @@
       <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D64">
@@ -5371,7 +5370,7 @@
       <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D65">
@@ -5388,7 +5387,7 @@
       <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D66">
@@ -5405,7 +5404,7 @@
       <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D67">
@@ -5422,7 +5421,7 @@
       <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D68">
@@ -5439,7 +5438,7 @@
       <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D69">
@@ -5456,7 +5455,7 @@
       <c r="B70" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D70">
@@ -5473,7 +5472,7 @@
       <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D71">
@@ -5490,7 +5489,7 @@
       <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D72">
@@ -5507,7 +5506,7 @@
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D73">
@@ -5524,7 +5523,7 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D74">
@@ -5541,7 +5540,7 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D75">
@@ -5558,7 +5557,7 @@
       <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D76">
@@ -5575,7 +5574,7 @@
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D77">
@@ -5592,7 +5591,7 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D78">
@@ -5609,7 +5608,7 @@
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D79">
@@ -5626,7 +5625,7 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D80">
@@ -5643,7 +5642,7 @@
       <c r="B81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D81">
@@ -5660,7 +5659,7 @@
       <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D82">
@@ -5677,7 +5676,7 @@
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D83">
@@ -5694,7 +5693,7 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D84">
@@ -5711,7 +5710,7 @@
       <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D85">
@@ -5728,7 +5727,7 @@
       <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D86">
@@ -5745,7 +5744,7 @@
       <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D87">
@@ -5762,7 +5761,7 @@
       <c r="B88" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D88">
@@ -5779,7 +5778,7 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D89">
@@ -5796,7 +5795,7 @@
       <c r="B90" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D90">
@@ -5813,7 +5812,7 @@
       <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D91">
@@ -5830,7 +5829,7 @@
       <c r="B92" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D92">
@@ -5847,7 +5846,7 @@
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D93">
@@ -5864,7 +5863,7 @@
       <c r="B94" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D94">
@@ -5881,7 +5880,7 @@
       <c r="B95" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D95">
@@ -5898,7 +5897,7 @@
       <c r="B96" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D96">
@@ -5915,7 +5914,7 @@
       <c r="B97" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D97">
@@ -5932,7 +5931,7 @@
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D98">
@@ -6861,7 +6860,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6880,7 +6879,7 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6894,7 +6893,7 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6908,7 +6907,9 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6920,7 +6921,9 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -6931,6 +6934,9 @@
       </c>
       <c r="C5" t="s">
         <v>87</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83B164-0FCB-4EC5-8375-23DA2FD0494A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1310E55-8518-4785-8D58-8D6C0560DA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,6 +815,8 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1381,7 +1383,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -2858,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,6 +2872,7 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3293,11 +3296,9 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3431,11 +3432,9 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>1460</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -4264,7 +4263,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6319,7 +6318,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F14"/>
+      <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6644,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>9.0370000000000008</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>30</v>
@@ -6667,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>6.9340000000000011</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>30</v>
@@ -6690,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>3.9510000000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>30</v>
@@ -6713,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>6.758</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>30</v>
@@ -6736,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>30</v>
@@ -6857,10 +6856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6869,7 +6868,7 @@
     <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6894,14 +6893,14 @@
         <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="30">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
@@ -6911,42 +6910,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="30">
         <v>66.999600000000001</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26.799840000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="30">
         <v>66.103200000000001</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+        <v>26.441280000000003</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2031</v>
+      </c>
+      <c r="B6" s="30">
+        <v>65.77</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>26.308</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="30">
+        <v>65.47</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>39.281999999999996</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="30">
+        <v>65.41</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>39.245999999999995</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7001,8 +7037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7150,6 +7186,9 @@
       <c r="K4" t="s">
         <v>184</v>
       </c>
+      <c r="L4" s="1">
+        <v>2028</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7314,7 +7353,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1310E55-8518-4785-8D58-8D6C0560DA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED93702-389B-4D6E-8F3C-51DE8ACF3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,9 +2436,7 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2459,11 +2457,9 @@
         <v>116</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2659,9 +2655,7 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2682,11 +2676,9 @@
         <v>122</v>
       </c>
       <c r="B22" s="22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2807,9 +2799,7 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2830,11 +2820,9 @@
         <v>135</v>
       </c>
       <c r="B28" s="6">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2861,7 +2849,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,7 +3284,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23">
@@ -7037,7 +7025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED93702-389B-4D6E-8F3C-51DE8ACF3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CB859-FB40-4C97-8CE4-BB08972E70B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
   <si>
     <t>connection</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
+  </si>
+  <si>
+    <t>IRP</t>
+  </si>
+  <si>
+    <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,6 +1364,14 @@
       </c>
       <c r="C25" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1373,6 +1387,7 @@
     <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{A7FDCA60-4042-424F-BE01-B472EFA0655F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2141,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,10 +2374,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D9" s="9">
         <v>36.799999999999997</v>
@@ -2436,7 +2451,9 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2459,7 +2476,9 @@
       <c r="B13" s="6">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2655,7 +2674,9 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2678,7 +2699,9 @@
       <c r="B22" s="22">
         <v>25</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2799,7 +2822,9 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2822,7 +2847,9 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2848,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,7 +3055,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="6">
-        <v>3935</v>
+        <v>4022</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>196</v>
@@ -3053,7 +3080,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12">
-        <v>425.4</v>
+        <v>425.38</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>142</v>
@@ -3150,7 +3177,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="23">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>196</v>
@@ -3173,7 +3200,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="23">
-        <v>3644</v>
+        <v>3981</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>196</v>
@@ -3196,17 +3223,17 @@
         <v>216</v>
       </c>
       <c r="B17" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23">
-        <v>11.33</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>195</v>
@@ -3217,17 +3244,17 @@
         <v>218</v>
       </c>
       <c r="B18" s="23">
-        <v>952</v>
+        <v>999</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23">
-        <v>11.33</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>195</v>
@@ -3284,9 +3311,11 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22"/>
+        <v>1075</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" s="23">
         <v>13</v>
       </c>
@@ -3305,7 +3334,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="23">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>196</v>
@@ -3351,7 +3380,7 @@
         <v>132</v>
       </c>
       <c r="B24" s="7">
-        <v>3749</v>
+        <v>3908</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>196</v>
@@ -3420,9 +3449,11 @@
         <v>134</v>
       </c>
       <c r="B27" s="7">
-        <v>1460</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>1075</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="D27" s="7">
         <v>13</v>
       </c>
@@ -3441,7 +3472,7 @@
         <v>135</v>
       </c>
       <c r="B28" s="7">
-        <v>1494</v>
+        <v>1528</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>196</v>
@@ -3825,7 +3856,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +4151,7 @@
         <v>112</v>
       </c>
       <c r="B21" s="13">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C21" s="14">
         <v>1953</v>
@@ -4210,7 +4241,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4269,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>0.26214999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -6844,19 +6875,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6884,7 +6914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6898,79 +6928,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" s="30">
-        <v>66.999600000000001</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="3">
-        <v>26.799840000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
       <c r="B5" s="30">
-        <v>66.103200000000001</v>
+        <v>67.28</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>26.441280000000003</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26.912000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2031</v>
       </c>
       <c r="B6" s="30">
-        <v>65.77</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D6">
-        <v>26.308</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26.128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2036</v>
       </c>
       <c r="B7" s="30">
-        <v>65.47</v>
+        <v>63.75</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D7">
-        <v>39.281999999999996</v>
-      </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2041</v>
       </c>
       <c r="B8" s="30">
-        <v>65.41</v>
+        <v>63.75</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D8">
-        <v>39.245999999999995</v>
-      </c>
-      <c r="E8" s="29"/>
+      <c r="D8" s="29">
+        <v>25.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CB859-FB40-4C97-8CE4-BB08972E70B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC92AA-573D-4588-B1E3-4C7DAFC6E7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
     <sheet name="DiscountRate" sheetId="5" r:id="rId7"/>
     <sheet name="Fuels" sheetId="6" r:id="rId8"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId9"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId10"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId9"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId10"/>
     <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId11"/>
     <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId12"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId13"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="224">
   <si>
     <t>connection</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>https://energia.pr.gov/en/integrated-resource-plan/</t>
+  </si>
+  <si>
+    <t>CapacityCredit</t>
+  </si>
+  <si>
+    <t>[fr]</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1394,761 +1414,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4281,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -7363,58 +6681,854 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2015</v>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D15 D19:D28 F19:H28 F3:H15">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D18 F16:H18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E15 E19:E28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC92AA-573D-4588-B1E3-4C7DAFC6E7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD8636-813D-4BEA-AD4A-A741064692A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.26214999999999999</v>
+        <v>0.36215000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD8636-813D-4BEA-AD4A-A741064692A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A648FBC-8D2A-4D82-8BFD-D8805F7FBBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
       <c r="C3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1582,7 +1582,7 @@
       <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="29">
         <v>29.9</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1605,7 +1605,7 @@
       <c r="C5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1628,7 +1628,7 @@
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1651,7 +1651,7 @@
       <c r="C7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="29">
         <v>34.6</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1674,7 +1674,7 @@
       <c r="C8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="29">
         <v>34.1</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1697,7 +1697,7 @@
       <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1722,7 +1722,7 @@
       <c r="C10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="29">
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1747,7 +1747,7 @@
       <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="29">
         <v>45.5</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1772,7 +1772,7 @@
       <c r="C12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1797,7 +1797,7 @@
       <c r="C13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1820,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="D14" s="25">
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1845,7 +1845,7 @@
       <c r="C15" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1945,8 +1945,8 @@
       <c r="C19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="22">
-        <v>62.02</v>
+      <c r="D19" s="25">
+        <v>62.12</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>149</v>
@@ -1970,8 +1970,8 @@
       <c r="C20" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="22">
-        <v>42.47</v>
+      <c r="D20" s="25">
+        <v>42.34</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>149</v>
@@ -1995,7 +1995,7 @@
       <c r="C21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -2020,7 +2020,7 @@
       <c r="C22" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2043,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="D23" s="29">
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -2068,7 +2068,7 @@
       <c r="C24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="29">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2093,7 +2093,7 @@
       <c r="C25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="29">
         <v>54.17</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2118,8 +2118,8 @@
       <c r="C26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="9">
-        <v>37.6</v>
+      <c r="D26" s="29">
+        <v>37.11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>149</v>
@@ -2143,7 +2143,7 @@
       <c r="C27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2168,7 +2168,7 @@
       <c r="C28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2825,7 +2825,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F28"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3098,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25">
-        <v>705.6</v>
+        <v>738</v>
       </c>
       <c r="G21" s="25"/>
     </row>
@@ -3111,7 +3111,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25">
-        <v>71.64</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -3119,6 +3119,7 @@
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -3130,6 +3131,7 @@
       <c r="E24" t="s">
         <v>143</v>
       </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -3141,26 +3143,28 @@
       <c r="C25" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F27">
-        <v>705.6</v>
+      <c r="F27" s="29">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="3">
-        <v>71.64</v>
+      <c r="F28" s="25">
+        <v>75.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3178,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6370,7 +6374,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6473,8 +6477,8 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3">
-        <v>2.66</v>
+      <c r="D3" s="29">
+        <v>0.72</v>
       </c>
       <c r="E3" t="s">
         <v>92</v>
@@ -6500,8 +6504,8 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
-        <v>2.7</v>
+      <c r="D4" s="29">
+        <v>-0.16</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
@@ -6532,8 +6536,8 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
-        <v>2.8</v>
+      <c r="D5" s="29">
+        <v>0.23</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -6558,6 +6562,7 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6" s="29"/>
       <c r="J6">
         <v>40</v>
       </c>
@@ -6572,6 +6577,7 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7" s="29"/>
       <c r="H7">
         <v>39.51</v>
       </c>
@@ -6595,8 +6601,8 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8">
-        <v>3.05</v>
+      <c r="D8" s="29">
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -6624,8 +6630,8 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
+      <c r="D9" s="29">
+        <v>1.1399999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -6685,7 +6691,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6953,7 +6959,7 @@
         <v>129</v>
       </c>
       <c r="I9">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A648FBC-8D2A-4D82-8BFD-D8805F7FBBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FE9D5-681B-4F64-8A02-F6D4F42BE33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
@@ -3603,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects/puerto_rico_stoch/data/data_Y.xlsx
+++ b/projects/puerto_rico_stoch/data/data_Y.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FE9D5-681B-4F64-8A02-F6D4F42BE33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FEBF3-0E1C-4015-B98D-C1D96769070C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,6 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3603,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
@@ -5658,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5767,7 +5768,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>2084.1332580463013</v>
+        <v>2251.8040000000001</v>
       </c>
       <c r="I3" t="s">
         <v>199</v>
@@ -5797,8 +5798,8 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4">
-        <v>688.39634941329859</v>
+      <c r="H4" s="29">
+        <v>500.16300000000001</v>
       </c>
       <c r="I4" t="s">
         <v>199</v>
@@ -5833,7 +5834,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>323.88212908717634</v>
+        <v>1057.1590000000001</v>
       </c>
       <c r="I5" t="s">
         <v>199</v>
@@ -5868,7 +5869,7 @@
         <v>184</v>
       </c>
       <c r="H6" s="1">
-        <v>539.80354847862725</v>
+        <v>634.29600000000005</v>
       </c>
       <c r="I6" t="s">
         <v>199</v>
@@ -5893,6 +5894,7 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="H7" s="29"/>
       <c r="J7">
         <v>30</v>
       </c>
@@ -5922,8 +5924,8 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="H8">
-        <v>4531.3620000000001</v>
+      <c r="H8" s="31">
+        <v>4867.5</v>
       </c>
       <c r="I8" t="s">
         <v>199</v>
@@ -5957,8 +5959,8 @@
       <c r="G9" t="s">
         <v>184</v>
       </c>
-      <c r="H9">
-        <v>7746.9369999999999</v>
+      <c r="H9" s="31">
+        <v>15083.665999999999</v>
       </c>
       <c r="I9" t="s">
         <v>199</v>
